--- a/src/input_files/course_availabilities.xlsx
+++ b/src/input_files/course_availabilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\Scheduler\src\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mel91\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B12E9A-69BD-4927-B7CF-95EEB6480B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93706754-06FB-441E-9828-9EB6D0493859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21735" yWindow="705" windowWidth="8775" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="1608" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="152">
   <si>
     <t>course_ID</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>CPSC 1301K</t>
+  </si>
+  <si>
+    <t>importance</t>
   </si>
 </sst>
 </file>
@@ -734,15 +737,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,8 +761,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +781,11 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -792,8 +801,11 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -809,8 +821,11 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,8 +841,11 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -843,8 +861,11 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -860,8 +881,11 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -877,8 +901,11 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -894,8 +921,11 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -908,8 +938,11 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -925,8 +958,11 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -942,8 +978,11 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -959,8 +998,11 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -976,8 +1018,11 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -993,8 +1038,11 @@
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1010,8 +1058,11 @@
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,8 +1078,11 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1044,8 +1098,11 @@
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1061,8 +1118,11 @@
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1078,8 +1138,11 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1095,8 +1158,11 @@
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1112,8 +1178,11 @@
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1129,8 +1198,11 @@
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1146,8 +1218,11 @@
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1163,8 +1238,11 @@
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1180,8 +1258,11 @@
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1197,8 +1278,11 @@
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1214,8 +1298,11 @@
       <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1231,8 +1318,11 @@
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -1248,8 +1338,11 @@
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1265,8 +1358,11 @@
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1282,8 +1378,11 @@
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1299,8 +1398,11 @@
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -1316,8 +1418,11 @@
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1333,8 +1438,11 @@
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -1350,8 +1458,11 @@
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1367,8 +1478,11 @@
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -1384,8 +1498,11 @@
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -1401,8 +1518,11 @@
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1418,8 +1538,11 @@
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1435,8 +1558,11 @@
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1452,8 +1578,11 @@
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1469,8 +1598,11 @@
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1486,8 +1618,11 @@
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1503,8 +1638,11 @@
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -1520,8 +1658,11 @@
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -1537,8 +1678,11 @@
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -1554,8 +1698,11 @@
       <c r="E48" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -1571,8 +1718,11 @@
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -1588,8 +1738,11 @@
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -1605,8 +1758,11 @@
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -1622,8 +1778,11 @@
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>139</v>
       </c>
@@ -1639,8 +1798,11 @@
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>141</v>
       </c>
@@ -1656,8 +1818,11 @@
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -1673,8 +1838,11 @@
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>142</v>
       </c>
@@ -1690,8 +1858,11 @@
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -1707,8 +1878,11 @@
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
@@ -1724,8 +1898,11 @@
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -1741,8 +1918,11 @@
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>146</v>
       </c>
@@ -1758,8 +1938,11 @@
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>147</v>
       </c>
@@ -1775,8 +1958,11 @@
       <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -1792,8 +1978,11 @@
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>149</v>
       </c>
@@ -1809,8 +1998,11 @@
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -1826,8 +2018,11 @@
       <c r="E64" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -1843,8 +2038,11 @@
       <c r="E65" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -1860,8 +2058,11 @@
       <c r="E66" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -1877,8 +2078,11 @@
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -1894,8 +2098,11 @@
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -1911,8 +2118,11 @@
       <c r="E69" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -1928,8 +2138,11 @@
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -1945,8 +2158,11 @@
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -1962,8 +2178,11 @@
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -1979,8 +2198,11 @@
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -1996,8 +2218,11 @@
       <c r="E74" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -2010,8 +2235,11 @@
       <c r="D75" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -2027,8 +2255,11 @@
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -2044,8 +2275,11 @@
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -2061,8 +2295,11 @@
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -2078,8 +2315,11 @@
       <c r="E79" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -2095,8 +2335,11 @@
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -2112,8 +2355,11 @@
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -2123,8 +2369,11 @@
       <c r="E82" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -2140,8 +2389,11 @@
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -2157,8 +2409,11 @@
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -2174,8 +2429,11 @@
       <c r="E85" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -2191,8 +2449,11 @@
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -2208,8 +2469,11 @@
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -2225,8 +2489,11 @@
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -2242,8 +2509,11 @@
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -2259,8 +2529,11 @@
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -2276,8 +2549,11 @@
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -2293,8 +2569,11 @@
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -2310,8 +2589,11 @@
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -2327,8 +2609,11 @@
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -2344,8 +2629,11 @@
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -2361,8 +2649,11 @@
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -2378,8 +2669,11 @@
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -2395,8 +2689,11 @@
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -2412,8 +2709,11 @@
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -2429,8 +2729,11 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -2446,8 +2749,11 @@
       <c r="E101" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -2463,8 +2769,11 @@
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -2480,8 +2789,11 @@
       <c r="E103" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -2497,8 +2809,11 @@
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -2514,8 +2829,11 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -2531,8 +2849,11 @@
       <c r="E106" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -2548,8 +2869,11 @@
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -2565,8 +2889,11 @@
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -2582,8 +2909,11 @@
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -2599,8 +2929,11 @@
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -2616,8 +2949,11 @@
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -2633,8 +2969,11 @@
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -2650,8 +2989,11 @@
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -2667,8 +3009,11 @@
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -2684,8 +3029,11 @@
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -2701,8 +3049,11 @@
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -2718,8 +3069,11 @@
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -2735,8 +3089,11 @@
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -2752,8 +3109,11 @@
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -2769,8 +3129,11 @@
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -2786,8 +3149,11 @@
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
@@ -2803,8 +3169,11 @@
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -2820,8 +3189,11 @@
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -2837,8 +3209,11 @@
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -2854,8 +3229,11 @@
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -2871,8 +3249,11 @@
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -2888,8 +3269,11 @@
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -2904,6 +3288,9 @@
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
